--- a/data/s_vals/2023/reyes_pablo.xlsx
+++ b/data/s_vals/2023/reyes_pablo.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.39046706070303</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>1.329362116779562</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.276820249404641</v>
+        <v>3.811642989160245</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.592038685284193</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5496097884205744</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2168782717193853</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3401128002026628</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.698639545626816</v>
+        <v>1.719096746035642</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/reyes_pablo.xlsx
+++ b/data/s_vals/2023/reyes_pablo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>3.811642989160245</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>1.719096746035642</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2023/reyes_pablo.xlsx
+++ b/data/s_vals/2023/reyes_pablo.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.505614041169197</v>
+        <v>1.455362044514542</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65323645889881</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.811642989160245</v>
+        <v>3.754798637575387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7287194209349384</v>
+        <v>0.6606524410359556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3375848360084654</v>
+        <v>0.306821227259698</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1529057820181812</v>
+        <v>0.1494219747398047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4998867070740569</v>
+        <v>0.4942365360607697</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.719096746035642</v>
+        <v>1.611132179096228</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
